--- a/beta/test.xlsx
+++ b/beta/test.xlsx
@@ -7,30 +7,47 @@
     <workbookView xWindow="360" yWindow="60" windowWidth="20475" windowHeight="10320"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
+    <sheet name="シート2" sheetId="2" r:id="rId2"/>
+    <sheet name="シート3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>test</t>
+    <t>Python</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>test</t>
+    <t>ハロー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>test</t>
+    <t>世界</t>
+    <rPh sb="0" eb="2">
+      <t>セカイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>test</t>
+    <t>Excel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動操作</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Total</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -382,41 +399,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <f>SUM(A4:A13)</f>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
